--- a/CheckingData/CheckingData/ExeleData/ValidationResults.xlsx
+++ b/CheckingData/CheckingData/ExeleData/ValidationResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Код проверки</t>
   </si>
@@ -50,16 +50,13 @@
     <t>Формат электронной почты</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>R_FL_DUL_001</t>
   </si>
   <si>
     <t>Проверка серии паспорта</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>87,98%</t>
   </si>
 </sst>
 </file>
@@ -170,21 +167,21 @@
         <v>9997</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0">
         <v>9997</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
